--- a/data/data_borrow_request.xlsx
+++ b/data/data_borrow_request.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Testing\RobotFramework\LibQNU\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54D4AFD-BF3E-485D-8598-5AE55C2E7478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6FE201-6AF9-4B11-AAC8-84A318D75943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4725" yWindow="2265" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>${data_keyword_search}</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>4451190019</t>
+  </si>
+  <si>
+    <t>*** Test case ***</t>
+  </si>
+  <si>
+    <t>TC054 - Đăng ký mượn tài liệu truyền thống</t>
   </si>
 </sst>
 </file>
@@ -367,53 +373,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="39.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>4451190019</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
